--- a/Results/Notebook 2 Example 1/Scores/problem_2_instance3_scores.xlsx
+++ b/Results/Notebook 2 Example 1/Scores/problem_2_instance3_scores.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02259313482006399</v>
+        <v>0.01575462090081432</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1726731146403798</v>
+        <v>0.1965624703810414</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05296271175197594</v>
+        <v>0.05458100723811542</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2990848577420578</v>
+        <v>0.2361503079336973</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9399410882230455</v>
+        <v>0.941907158318113</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3524543071697546</v>
+        <v>0.4912571846679999</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.996624890571526</v>
+        <v>0.9956299508590023</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2911340379073692</v>
+        <v>0.4235547453023541</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9952444345027844</v>
+        <v>0.9923357471225299</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7380133500238375</v>
+        <v>0.8144106704366469</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9892891737554903</v>
+        <v>0.9850802293349668</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2149713362674772</v>
+        <v>0.3398143927567758</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001198410987854004</v>
+        <v>0.002559327483177185</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2048454880714417</v>
+        <v>0.1780865287780762</v>
       </c>
     </row>
   </sheetData>
